--- a/public/main_page/events_data.xlsx
+++ b/public/main_page/events_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Projects\shpe_website\my_shpe_website\public\main_page\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Clean 3\Projects\shpe_website\my_shpe_website\public\main_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA579E9-C0E2-4991-8FF2-05D3ACEB5287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4237A8E2-7CB1-4499-8C47-4E918721A29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63705" yWindow="7365" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>flyerImage</t>
   </si>
@@ -106,10 +106,37 @@
     <t>Thursday, Jan 23, 5pm. EB315</t>
   </si>
   <si>
-    <t>Upcoming Events!</t>
-  </si>
-  <si>
     <t>https://i.ibb.co/Zhq4zwz/grad-info-session-flyer.png</t>
+  </si>
+  <si>
+    <t>https://postimg.cc/4Ky939N7</t>
+  </si>
+  <si>
+    <t>Study &amp; Sweets: A Valentine's Study Session</t>
+  </si>
+  <si>
+    <t>Upcoming Events</t>
+  </si>
+  <si>
+    <t>Join us for our next study session with a fun twist—an elementary school-style Valentine’s exchange! Bring your own Valentines to swap, and we’ll have supplies to make cards so no one is left out.</t>
+  </si>
+  <si>
+    <t>Thursday, Feb 13, 7-10PM. EB315</t>
+  </si>
+  <si>
+    <t>https://postimg.cc/xJqhgtjf</t>
+  </si>
+  <si>
+    <t>STUDY SESSIONS</t>
+  </si>
+  <si>
+    <t>Thursdays!</t>
+  </si>
+  <si>
+    <t>Lock in &amp; study with us!</t>
+  </si>
+  <si>
+    <t>Every Thursday!</t>
   </si>
 </sst>
 </file>
@@ -392,15 +419,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13.15" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,115 +444,148 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F6F48B4F-CEEB-44E7-9C00-74451974AD4E}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{F6F48B4F-CEEB-44E7-9C00-74451974AD4E}"/>
+    <hyperlink ref="A9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId7" xr:uid="{6BED1BD2-E21E-47F0-A9A4-B1F6742BC7EA}"/>
+    <hyperlink ref="A3" r:id="rId8" xr:uid="{7EE3840F-5698-4C9C-B31D-B2096BDF4516}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/public/main_page/events_data.xlsx
+++ b/public/main_page/events_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Clean 3\Projects\shpe_website\my_shpe_website\public\main_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4237A8E2-7CB1-4499-8C47-4E918721A29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB8C976-7A10-48D2-9A34-81C5FD222516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>https://i.ibb.co/Zhq4zwz/grad-info-session-flyer.png</t>
   </si>
   <si>
-    <t>https://postimg.cc/4Ky939N7</t>
-  </si>
-  <si>
     <t>Study &amp; Sweets: A Valentine's Study Session</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>Thursday, Feb 13, 7-10PM. EB315</t>
   </si>
   <si>
-    <t>https://postimg.cc/xJqhgtjf</t>
-  </si>
-  <si>
     <t>STUDY SESSIONS</t>
   </si>
   <si>
@@ -136,7 +130,13 @@
     <t>Lock in &amp; study with us!</t>
   </si>
   <si>
-    <t>Every Thursday!</t>
+    <t>https://i.postimg.cc/43bbB6D5/valentines-study-session.png</t>
+  </si>
+  <si>
+    <t>https://i.postimg.cc/wvkzqGSm/study-session-flyer.png</t>
+  </si>
+  <si>
+    <t>Every Thursday, 7-10PM. EB315</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -446,36 +446,36 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">

--- a/public/main_page/events_data.xlsx
+++ b/public/main_page/events_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15413\Desktop\Alex\Clean 3\Projects\shpe_website\my_shpe_website\public\main_page\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB8C976-7A10-48D2-9A34-81C5FD222516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC30A503-CBF4-4E9D-B115-895883BAA30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,9 +112,6 @@
     <t>Study &amp; Sweets: A Valentine's Study Session</t>
   </si>
   <si>
-    <t>Upcoming Events</t>
-  </si>
-  <si>
     <t>Join us for our next study session with a fun twist—an elementary school-style Valentine’s exchange! Bring your own Valentines to swap, and we’ll have supplies to make cards so no one is left out.</t>
   </si>
   <si>
@@ -124,9 +121,6 @@
     <t>STUDY SESSIONS</t>
   </si>
   <si>
-    <t>Thursdays!</t>
-  </si>
-  <si>
     <t>Lock in &amp; study with us!</t>
   </si>
   <si>
@@ -137,6 +131,12 @@
   </si>
   <si>
     <t>Every Thursday, 7-10PM. EB315</t>
+  </si>
+  <si>
+    <t>Upcoming Events!</t>
+  </si>
+  <si>
+    <t>Every Thursday!</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -446,36 +446,36 @@
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
